--- a/public/assets/product_bulk_format.xlsx
+++ b/public/assets/product_bulk_format.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -31,7 +39,7 @@
     <t>unit</t>
   </si>
   <si>
-    <t>min_qty</t>
+    <t>minimum_order_qty</t>
   </si>
   <si>
     <t>refundable</t>
@@ -41,9 +49,6 @@
   </si>
   <si>
     <t>unit_price</t>
-  </si>
-  <si>
-    <t>purchase_price</t>
   </si>
   <si>
     <t>tax</t>
@@ -92,28 +97,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -128,7 +120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -143,47 +135,33 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,24 +170,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -401,17 +440,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -430,19 +469,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -460,7 +499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -486,7 +525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -512,7 +551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -538,7 +577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -564,7 +603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -590,7 +629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -616,7 +655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -642,7 +681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,26 +720,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -719,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,9 +1011,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -982,7 +1033,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1001,19 +1052,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1031,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,95 +1303,101 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="1" customWidth="1"/>
     <col min="3" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.1719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.3516" style="1" customWidth="1"/>
-    <col min="16" max="17" width="29" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.36328125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="29" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.453125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+    </row>
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1354,8 +1411,8 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" t="s" s="4">
-        <v>18</v>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G2" s="5">
         <v>23</v>
@@ -1363,35 +1420,32 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" t="s" s="4">
-        <v>19</v>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="5">
         <v>55</v>
       </c>
       <c r="K2" s="5">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5">
         <v>10</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="5">
+        <v>100</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5">
-        <v>100</v>
-      </c>
-      <c r="P2" t="s" s="4">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1405,8 +1459,8 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" t="s" s="4">
-        <v>18</v>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="5">
         <v>33</v>
@@ -1419,26 +1473,23 @@
         <v>55</v>
       </c>
       <c r="K3" s="5">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="L3" s="5">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5">
         <v>10</v>
       </c>
-      <c r="N3" t="s" s="4">
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5">
+        <v>100</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="5">
-        <v>100</v>
-      </c>
-      <c r="P3" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1455,9 +1506,8 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1474,9 +1524,8 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1493,9 +1542,8 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1512,9 +1560,8 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1531,9 +1578,8 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1550,9 +1596,8 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1569,14 +1614,13 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" location="" tooltip="" display="https://www.youtube.com/watch?v=2D-rr4gv3fk"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
